--- a/Invoice_Project/invoices.xlsx
+++ b/Invoice_Project/invoices.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\вцусц\OneDrive\Документы\UiPath\Invoice_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{443E89C2-0317-41B3-9255-C3FDB5D17589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC173392-A0A0-4D9F-80A5-4C2CF74F1261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1596" yWindow="1980" windowWidth="17832" windowHeight="11388" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -390,7 +390,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="A2:C5"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Invoice_Project/invoices.xlsx
+++ b/Invoice_Project/invoices.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\вцусц\OneDrive\Документы\UiPath\Invoice_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC173392-A0A0-4D9F-80A5-4C2CF74F1261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7657E4CB-0773-4D33-B903-9759A7B41BEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1596" yWindow="1980" windowWidth="17832" windowHeight="11388" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -390,7 +390,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="A2" sqref="A2:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
